--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H2">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N2">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q2">
-        <v>0.1012087423635556</v>
+        <v>18.41242271295845</v>
       </c>
       <c r="R2">
-        <v>0.9108786812719999</v>
+        <v>165.711804416626</v>
       </c>
       <c r="S2">
-        <v>8.299330806120451E-07</v>
+        <v>9.953674243176066E-05</v>
       </c>
       <c r="T2">
-        <v>8.299330806120452E-07</v>
+        <v>9.953674243176067E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H3">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N3">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q3">
-        <v>156.7626131505302</v>
+        <v>1608.289228642209</v>
       </c>
       <c r="R3">
-        <v>1410.863518354772</v>
+        <v>14474.60305777988</v>
       </c>
       <c r="S3">
-        <v>0.001285486563892555</v>
+        <v>0.008694340402823221</v>
       </c>
       <c r="T3">
-        <v>0.001285486563892555</v>
+        <v>0.008694340402823221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H4">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N4">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O4">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P4">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q4">
-        <v>28.14842782139755</v>
+        <v>190.4520810698307</v>
       </c>
       <c r="R4">
-        <v>253.335850392578</v>
+        <v>1714.068729628476</v>
       </c>
       <c r="S4">
-        <v>0.0002308230580741856</v>
+        <v>0.001029575522709396</v>
       </c>
       <c r="T4">
-        <v>0.0002308230580741856</v>
+        <v>0.001029575522709396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H5">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I5">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J5">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N5">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q5">
-        <v>164.0677181655253</v>
+        <v>871.3796744097118</v>
       </c>
       <c r="R5">
-        <v>1476.609463489728</v>
+        <v>7842.417069687407</v>
       </c>
       <c r="S5">
-        <v>0.001345389969148903</v>
+        <v>0.004710639961081731</v>
       </c>
       <c r="T5">
-        <v>0.001345389969148903</v>
+        <v>0.004710639961081732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>1135.616028</v>
       </c>
       <c r="I6">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J6">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N6">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q6">
-        <v>14.87757940326933</v>
+        <v>357.4322426831507</v>
       </c>
       <c r="R6">
-        <v>133.898214629424</v>
+        <v>3216.890184148356</v>
       </c>
       <c r="S6">
-        <v>0.0001219992958894016</v>
+        <v>0.001932262887475433</v>
       </c>
       <c r="T6">
-        <v>0.0001219992958894016</v>
+        <v>0.001932262887475434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I7">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J7">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N7">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q7">
-        <v>23043.94037654627</v>
+        <v>31221.00957806945</v>
       </c>
       <c r="R7">
-        <v>207395.4633889164</v>
+        <v>280989.086202625</v>
       </c>
       <c r="S7">
-        <v>0.1889651820536214</v>
+        <v>0.1687793962412514</v>
       </c>
       <c r="T7">
-        <v>0.1889651820536214</v>
+        <v>0.1687793962412515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I8">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J8">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N8">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O8">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P8">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q8">
-        <v>4137.789485474697</v>
+        <v>3697.162264939384</v>
       </c>
       <c r="R8">
-        <v>37240.10536927228</v>
+        <v>33274.46038445445</v>
       </c>
       <c r="S8">
-        <v>0.03393074841566979</v>
+        <v>0.01998669560387074</v>
       </c>
       <c r="T8">
-        <v>0.03393074841566979</v>
+        <v>0.01998669560387074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I9">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J9">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N9">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q9">
-        <v>24117.78318272806</v>
+        <v>16915.70936146147</v>
       </c>
       <c r="R9">
-        <v>217060.0486445526</v>
+        <v>152241.3842531532</v>
       </c>
       <c r="S9">
-        <v>0.1977709200503071</v>
+        <v>0.09144557628352297</v>
       </c>
       <c r="T9">
-        <v>0.1977709200503071</v>
+        <v>0.091445576283523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H10">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I10">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J10">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N10">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q10">
-        <v>11.03837070064089</v>
+        <v>454.7081253180967</v>
       </c>
       <c r="R10">
-        <v>99.345336305768</v>
+        <v>4092.37312786287</v>
       </c>
       <c r="S10">
-        <v>9.051697300627139E-05</v>
+        <v>0.00245813200451685</v>
       </c>
       <c r="T10">
-        <v>9.051697300627139E-05</v>
+        <v>0.002458132004516851</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H11">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I11">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J11">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N11">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q11">
-        <v>17097.37514315581</v>
+        <v>39717.86828522596</v>
       </c>
       <c r="R11">
-        <v>153876.3762884023</v>
+        <v>357460.8145670336</v>
       </c>
       <c r="S11">
-        <v>0.140202090170905</v>
+        <v>0.2147130384239324</v>
       </c>
       <c r="T11">
-        <v>0.140202090170905</v>
+        <v>0.2147130384239324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H12">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I12">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J12">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N12">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O12">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P12">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q12">
-        <v>3070.019186847488</v>
+        <v>4703.352193041101</v>
       </c>
       <c r="R12">
-        <v>27630.17268162738</v>
+        <v>42330.1697373699</v>
       </c>
       <c r="S12">
-        <v>0.0251748062645219</v>
+        <v>0.02542611383102267</v>
       </c>
       <c r="T12">
-        <v>0.0251748062645219</v>
+        <v>0.02542611383102267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H13">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I13">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J13">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N13">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q13">
-        <v>17894.10925208258</v>
+        <v>21519.35268748073</v>
       </c>
       <c r="R13">
-        <v>161046.9832687432</v>
+        <v>193674.1741873265</v>
       </c>
       <c r="S13">
-        <v>0.1467354782756108</v>
+        <v>0.1163326683915689</v>
       </c>
       <c r="T13">
-        <v>0.1467354782756108</v>
+        <v>0.1163326683915689</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H14">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I14">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J14">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N14">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q14">
-        <v>0.2610652645502222</v>
+        <v>10.30168291242433</v>
       </c>
       <c r="R14">
-        <v>2.349587380952</v>
+        <v>92.715146211819</v>
       </c>
       <c r="S14">
-        <v>2.140790352583063E-06</v>
+        <v>5.56904419724184E-05</v>
       </c>
       <c r="T14">
-        <v>2.140790352583063E-06</v>
+        <v>5.56904419724184E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H15">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I15">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J15">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N15">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q15">
-        <v>404.3649996827169</v>
+        <v>899.831919092273</v>
       </c>
       <c r="R15">
-        <v>3639.284997144452</v>
+        <v>8098.487271830456</v>
       </c>
       <c r="S15">
-        <v>0.003315878470980895</v>
+        <v>0.004864451536816431</v>
       </c>
       <c r="T15">
-        <v>0.003315878470980895</v>
+        <v>0.004864451536816431</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H16">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I16">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J16">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N16">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O16">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P16">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q16">
-        <v>72.60812242354423</v>
+        <v>106.557240173066</v>
       </c>
       <c r="R16">
-        <v>653.473101811898</v>
+        <v>959.015161557594</v>
       </c>
       <c r="S16">
-        <v>0.0005954019515820768</v>
+        <v>0.0005760437251900099</v>
       </c>
       <c r="T16">
-        <v>0.0005954019515820768</v>
+        <v>0.0005760437251900099</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H17">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I17">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J17">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N17">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q17">
-        <v>423.2083241700054</v>
+        <v>487.5337288331279</v>
       </c>
       <c r="R17">
-        <v>3808.874917530048</v>
+        <v>4387.803559498151</v>
       </c>
       <c r="S17">
-        <v>0.003470397714827749</v>
+        <v>0.002635585764577618</v>
       </c>
       <c r="T17">
-        <v>0.00347039771482775</v>
+        <v>0.002635585764577619</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H18">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I18">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J18">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N18">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q18">
-        <v>5.191073391584889</v>
+        <v>92.99359131551611</v>
       </c>
       <c r="R18">
-        <v>46.719660524264</v>
+        <v>836.942321839645</v>
       </c>
       <c r="S18">
-        <v>4.256789908608358E-05</v>
+        <v>0.0005027192396610838</v>
       </c>
       <c r="T18">
-        <v>4.256789908608359E-05</v>
+        <v>0.0005027192396610841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H19">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I19">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J19">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N19">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q19">
-        <v>8040.473687518753</v>
+        <v>8122.808908804881</v>
       </c>
       <c r="R19">
-        <v>72364.26318766878</v>
+        <v>73105.28017924393</v>
       </c>
       <c r="S19">
-        <v>0.06593358381128785</v>
+        <v>0.04391154552459286</v>
       </c>
       <c r="T19">
-        <v>0.06593358381128786</v>
+        <v>0.04391154552459287</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H20">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I20">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J20">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N20">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O20">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P20">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q20">
-        <v>1443.754277211743</v>
+        <v>961.8953066796967</v>
       </c>
       <c r="R20">
-        <v>12993.78849490569</v>
+        <v>8657.05776011727</v>
       </c>
       <c r="S20">
-        <v>0.01183909025002002</v>
+        <v>0.005199963463793005</v>
       </c>
       <c r="T20">
-        <v>0.01183909025002002</v>
+        <v>0.005199963463793006</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H21">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I21">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J21">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N21">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O21">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P21">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q21">
-        <v>8415.158081183637</v>
+        <v>4400.981152017239</v>
       </c>
       <c r="R21">
-        <v>75736.42273065275</v>
+        <v>39608.83036815516</v>
       </c>
       <c r="S21">
-        <v>0.06900607503911611</v>
+        <v>0.02379150936324486</v>
       </c>
       <c r="T21">
-        <v>0.06900607503911613</v>
+        <v>0.02379150936324487</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H22">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I22">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J22">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N22">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O22">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P22">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q22">
-        <v>3.887103718281777</v>
+        <v>332.9955683619081</v>
       </c>
       <c r="R22">
-        <v>34.98393346453599</v>
+        <v>2996.960115257172</v>
       </c>
       <c r="S22">
-        <v>3.187507213540675E-05</v>
+        <v>0.001800159307423988</v>
       </c>
       <c r="T22">
-        <v>3.187507213540676E-05</v>
+        <v>0.001800159307423989</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H23">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I23">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J23">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N23">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O23">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P23">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q23">
-        <v>6020.750008691115</v>
+        <v>29086.51371582573</v>
       </c>
       <c r="R23">
-        <v>54186.75007822004</v>
+        <v>261778.6234424315</v>
       </c>
       <c r="S23">
-        <v>0.0493714227211594</v>
+        <v>0.1572404060619588</v>
       </c>
       <c r="T23">
-        <v>0.0493714227211594</v>
+        <v>0.1572404060619588</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H24">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I24">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J24">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N24">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O24">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P24">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q24">
-        <v>1081.090979821724</v>
+        <v>3444.397294709208</v>
       </c>
       <c r="R24">
-        <v>9729.818818395514</v>
+        <v>30999.57565238287</v>
       </c>
       <c r="S24">
-        <v>0.008865174552632559</v>
+        <v>0.01862025935972207</v>
       </c>
       <c r="T24">
-        <v>0.008865174552632559</v>
+        <v>0.01862025935972207</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H25">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I25">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J25">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N25">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O25">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P25">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q25">
-        <v>6301.315700973162</v>
+        <v>15759.22812889046</v>
       </c>
       <c r="R25">
-        <v>56711.84130875846</v>
+        <v>141833.0531600142</v>
       </c>
       <c r="S25">
-        <v>0.05167212070309123</v>
+        <v>0.08519368991483937</v>
       </c>
       <c r="T25">
-        <v>0.05167212070309123</v>
+        <v>0.08519368991483939</v>
       </c>
     </row>
   </sheetData>
